--- a/1pagina militar/add/productos.xlsx
+++ b/1pagina militar/add/productos.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Solaez.github.io\1pagina militar\add\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19558590-513F-4C66-B16B-2DFA26E6388C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -61,87 +56,98 @@
     <t>Promoción</t>
   </si>
   <si>
-    <t>b001</t>
-  </si>
-  <si>
-    <t>bolsos,promocion</t>
-  </si>
-  <si>
-    <t>Bolso militar, Bolsa de Viaje, con Correas de Mochila Extraíbles</t>
-  </si>
-  <si>
-    <t>/1pagina militar/img/productos/bolso/bolso miltitar viajero/principal.png</t>
-  </si>
-  <si>
-    <t>/1pagina militar/img/productos/bolso/bolso miltitar viajero/1.png</t>
-  </si>
-  <si>
-    <t>/1pagina militar/img/productos/bolso/bolso miltitar viajero/2.png</t>
-  </si>
-  <si>
-    <t>Bolso</t>
+    <t>bolsos</t>
+  </si>
+  <si>
+    <t>Bolso militar, Bolsa de Viaje o tula</t>
+  </si>
+  <si>
+    <t>imagenesProductos/principal.png</t>
+  </si>
+  <si>
+    <t>imagenesProductos/1.png</t>
+  </si>
+  <si>
+    <t>imagenesProductos/2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Esta gran bolsa de deporte militar está hecha de tela de poliéster 600D resistente con cremallera resistente n.º 10 y hebillas de calidad en toda la bolsa para su uso en condiciones difíciles. Ideal como bolsa de deporte, bolsa de despliegue, bolsa de carga táctica, bolsa de carga, bolsa de viaje. para hombres, etc...
+Esta enorme bolsa de viaje de estilo militar puede satisfacer todas sus necesidades de viajes, deportes o actividades al aire libre. Un compartimento principal de carga superior con cremallera y 6 bolsillos externos para un acceso rápido. El compartimento principal es de aproximadamente 82L. 6 bolsillos exteriores aproximadamente 6 L. Dimensiones totales: 94 cm de ancho x 38 cm de profundidad x 28 cm de altura.
+Las asas de transporte están hechas de todas las correas resistentes de 5 cm o de uso duradero y de transporte cómodo. 2 asas grandes reforzadas en cada lado para transportar y mover cargas pesadas. O dos personas mueven la bolsa pesada agarrando cada mango. Parte inferior de cuero artificial duradera y fácil de limpiar con patas de goma.
+Correas acolchadas extraíbles estilo mochila y panel superior para un transporte cómodo. Cuando las correas están sueltas, más cómodo de usar y llevar como bolsa de deporte.
+Esta gran mochila de estilo militar tiene el equilibrio adecuado entre calidad y dinero. En caso de insatisfacción, puede devolverlo en cualquier momento."
+</t>
+  </si>
+  <si>
+    <t>Bolso militar</t>
   </si>
   <si>
     <t>Sede Principal</t>
   </si>
   <si>
+    <t>$ 160.000</t>
+  </si>
+  <si>
+    <t>$ 90.000</t>
+  </si>
+  <si>
     <t>¡Oferta!</t>
   </si>
   <si>
-    <t xml:space="preserve">Esta gran bolsa de deporte militar está hecha de tela de poliéster 600D resistente con cremallera resistente n.º 10 y hebillas de calidad en toda la bolsa para su uso en condiciones difíciles. Ideal como bolsa de deporte, bolsa de despliegue, bolsa de carga táctica, bolsa de carga, bolsa de viaje. para hombres, etc...
-                        Esta enorme bolsa de viaje de estilo militar puede satisfacer todas sus necesidades de viajes, deportes o actividades al aire libre. Un compartimento principal de carga superior con cremallera y 6 bolsillos externos para un acceso rápido. El compartimento principal es de aproximadamente 82L. 6 bolsillos exteriores aproximadamente 6 L. Dimensiones totales: 94 cm de ancho x 38 cm de profundidad x 28 cm de altura.
-                        Las asas de transporte están hechas de todas las correas resistentes de 5 cm o de uso duradero y de transporte cómodo. 2 asas grandes reforzadas en cada lado para transportar y mover cargas pesadas. O dos personas mueven la bolsa pesada agarrando cada mango. Parte inferior de cuero artificial duradera y fácil de limpiar con patas de goma.
-                        Correas acolchadas extraíbles estilo mochila y panel superior para un transporte cómodo. Cuando las correas están sueltas, más cómodo de usar y llevar como bolsa de deporte.
-                        Esta gran mochila de estilo militar tiene el equilibrio adecuado entre calidad y dinero. En caso de insatisfacción, puede devolverlo en cualquier momento.
-                      </t>
+    <t>camisas</t>
+  </si>
+  <si>
+    <t>camisa</t>
+  </si>
+  <si>
+    <t>imagenesProductos/camisa1.png</t>
+  </si>
+  <si>
+    <t>imagenesProductos/camisa2.png</t>
+  </si>
+  <si>
+    <t>imagenesProductos/camisa3.png</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>amarilla, camisa</t>
+  </si>
+  <si>
+    <t>$ 20,000</t>
+  </si>
+  <si>
+    <t>$ 10,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ 20,000,00 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00FF9C"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF76C1FF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -165,45 +171,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellXfs count="3">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -493,27 +474,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.42578125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.5703125" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.42578125" customWidth="true" style="0"/>
+    <col min="7" max="7" width="12" customWidth="true" style="0"/>
+    <col min="8" max="8" width="16.5703125" customWidth="true" style="0"/>
+    <col min="10" max="10" width="16.42578125" customWidth="true" style="0"/>
+    <col min="11" max="11" width="19" customWidth="true" style="0"/>
+    <col min="12" max="12" width="19.28515625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,112 +538,126 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="8">
-        <v>160000</v>
-      </c>
-      <c r="L2" s="8">
-        <v>90000</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>21</v>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H7" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G9" s="3"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
 </worksheet>
 </file>
--- a/1pagina militar/add/productos.xlsx
+++ b/1pagina militar/add/productos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>$ 10,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ 20,000,00 </t>
   </si>
 </sst>
 </file>
@@ -478,7 +475,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L8" sqref="L8"/>
@@ -617,44 +614,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1pagina militar/add/productos.xlsx
+++ b/1pagina militar/add/productos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -92,33 +92,6 @@
   </si>
   <si>
     <t>¡Oferta!</t>
-  </si>
-  <si>
-    <t>camisas</t>
-  </si>
-  <si>
-    <t>camisa</t>
-  </si>
-  <si>
-    <t>imagenesProductos/camisa1.png</t>
-  </si>
-  <si>
-    <t>imagenesProductos/camisa2.png</t>
-  </si>
-  <si>
-    <t>imagenesProductos/camisa3.png</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>amarilla, camisa</t>
-  </si>
-  <si>
-    <t>$ 20,000</t>
-  </si>
-  <si>
-    <t>$ 10,000</t>
   </si>
 </sst>
 </file>
@@ -475,7 +448,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L8" sqref="L8"/>
@@ -576,44 +549,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
